--- a/output/table_models_400_2.xlsx
+++ b/output/table_models_400_2.xlsx
@@ -476,7 +476,7 @@
         <v>992241047592472.2</v>
       </c>
       <c r="E2" t="n">
-        <v>5.188719511032104</v>
+        <v>2.166745185852051</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8882889863003747</v>
+        <v>0.8879855713787864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4046081428277503</v>
+        <v>0.4092276933397176</v>
       </c>
       <c r="D3" t="n">
-        <v>62.65135205933011</v>
+        <v>28.95592632604821</v>
       </c>
       <c r="E3" t="n">
-        <v>1745.09161901474</v>
+        <v>1734.705056190491</v>
       </c>
     </row>
     <row r="4">
@@ -505,73 +505,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.994875122579359</v>
+        <v>10.00378516870295</v>
       </c>
       <c r="C4" t="n">
-        <v>1.196616922953684</v>
+        <v>1.195313983374676</v>
       </c>
       <c r="D4" t="n">
-        <v>1001064041564269</v>
+        <v>983209881637749.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7857761383056641</v>
+        <v>0.6918625831604004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>XGB_1</t>
+          <t>XGB_MANY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.79885795821735</v>
+        <v>10.92465838353673</v>
       </c>
       <c r="C5" t="n">
-        <v>1.419218212048377</v>
+        <v>1.217024147963954</v>
       </c>
       <c r="D5" t="n">
-        <v>1133716831018854</v>
+        <v>185650793619020.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4786145687103271</v>
+        <v>0.4392876625061035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LSTM_1</t>
+          <t>LSTM_MANY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.119663440085477</v>
+        <v>1.057351772670686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3404922135443724</v>
+        <v>0.4376544579442828</v>
       </c>
       <c r="D6" t="n">
-        <v>5.346984766051252</v>
+        <v>6.363815463289402</v>
       </c>
       <c r="E6" t="n">
-        <v>1669.353501796722</v>
+        <v>1863.676489830017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>FOREST_1</t>
+          <t>FOREST_MANY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.78674993730402</v>
+        <v>11.36471627530992</v>
       </c>
       <c r="C7" t="n">
-        <v>1.425195390594254</v>
+        <v>1.24376069214876</v>
       </c>
       <c r="D7" t="n">
-        <v>1180909436281080</v>
+        <v>117645374315565.2</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5972206592559814</v>
+        <v>0.8285977840423584</v>
       </c>
     </row>
   </sheetData>
